--- a/report/reliability/comb/Centro de Educação - CEDU-Doutorado-Presencial.xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Doutorado-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1011,6 +1011,16 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1837,11 +1847,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2222,11 +2227,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3394,9 +3394,7 @@
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3420,16 @@
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3437,9 +3437,7 @@
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,23 +3451,23 @@
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,22 +3481,22 @@
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,22 +3510,22 @@
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3551,16 @@
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3568,9 +3568,7 @@
     <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,23 +3582,23 @@
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,22 +3612,22 @@
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,19 +3641,20 @@
     <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,13 +3682,14 @@
     <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3698,7 +3698,6 @@
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,13 +3713,14 @@
     <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3728,7 +3728,6 @@
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3743,20 @@
     <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,13 +3772,14 @@
     <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8413741634001471</v>
+        <v>0.810634284541771</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.862599253290294</v>
+        <v>0.8235860604948826</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9298016314509958</v>
+        <v>0.9124336201710422</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.34347233896427193</v>
+        <v>0.28007859977113997</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>6.277980825772036</v>
+        <v>4.668486304456639</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03421578441147461</v>
+        <v>0.038246796197184886</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>3.1979166666666665</v>
+        <v>2.689583333333333</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7688021865176387</v>
+        <v>0.7007798616754869</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3105344848489057</v>
+        <v>0.2628972149077214</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8344189656845306</v>
+        <v>0.8013850415512466</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8492102867977688</v>
+        <v>0.8049556412426631</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9142907695374207</v>
+        <v>0.8977613360556468</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3386144814133521</v>
+        <v>0.2728252946888942</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>5.631752118653159</v>
+        <v>4.127038825276371</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.036209944128248156</v>
+        <v>0.04045882645533903</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.0345330124773301</v>
+        <v>0.05844984364338601</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.30935114311916806</v>
+        <v>0.26217052600571</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8412562996411725</v>
+        <v>0.8119105742046914</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8627412510080535</v>
+        <v>0.8254524566614967</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9255226548064953</v>
+        <v>0.9108738743049613</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3636288460061543</v>
+        <v>0.3006592033656463</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>6.285510084742748</v>
+        <v>4.729098106300363</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.034576874198151926</v>
+        <v>0.038234838260166173</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.029258516505219222</v>
+        <v>0.05387048695803778</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.32019318011126646</v>
+        <v>0.26423513302766294</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8305938023725806</v>
+        <v>0.8020231660231661</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8427474129032374</v>
+        <v>0.8064292446426718</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9122590252489504</v>
+        <v>0.8935790836424244</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.32759531105755113</v>
+        <v>0.2746967229965065</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>5.359195854658132</v>
+        <v>4.166069627377428</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03676132398897598</v>
+        <v>0.041008751864861415</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03585353654203414</v>
+        <v>0.045592728846219885</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.27306949361712324</v>
+        <v>0.2636239038097328</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8202246990796427</v>
+        <v>0.7700449071239028</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8419334132891941</v>
+        <v>0.7924927690421568</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9160763701750603</v>
+        <v>0.8926772471718576</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.3262465800087012</v>
+        <v>0.25771516545274376</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>5.3264477383165785</v>
+        <v>3.819109172167392</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03853796688435916</v>
+        <v>0.04770420994160801</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.035479101761047536</v>
+        <v>0.04525566147584258</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.3052824878292428</v>
+        <v>0.2559847291515063</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8138404498044329</v>
+        <v>0.7677513073794306</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8444156203484232</v>
+        <v>0.7889588557121768</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9108823826651707</v>
+        <v>0.883697780508626</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3303862393701701</v>
+        <v>0.2536509623248141</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>5.42738044937061</v>
+        <v>3.7384125184432064</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.041266314573029886</v>
+        <v>0.04843253046267597</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03282565640860519</v>
+        <v>0.042443838400891505</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.27475243668643295</v>
+        <v>0.2500912127240867</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8115506129154557</v>
+        <v>0.81513133182472</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8405783610401082</v>
+        <v>0.8357013562796843</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9084317301190968</v>
+        <v>0.9142578804614507</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.32402014126896567</v>
+        <v>0.3161958550056104</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>5.272674189804212</v>
+        <v>5.08647751044307</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.0420359975855937</v>
+        <v>0.03866164777718996</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03106817244115175</v>
+        <v>0.04495310847230539</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2730992514748258</v>
+        <v>0.2649409352746537</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8337765190255161</v>
+        <v>0.7981132680892027</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.860601002619332</v>
+        <v>0.8144855361160364</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9164854935265998</v>
+        <v>0.9005880985342205</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.35948396277152805</v>
+        <v>0.2852694483621861</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>6.1736527434929815</v>
+        <v>4.3904152757894055</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03537648524572223</v>
+        <v>0.03975181218564562</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03301017712072991</v>
+        <v>0.05554432906634949</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3263985157108451</v>
+        <v>0.2649409352746537</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8343197154414318</v>
+        <v>0.7948941746323315</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.857087293051608</v>
+        <v>0.8068807823585271</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.918694690975119</v>
+        <v>0.896789654984673</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3528375702608675</v>
+        <v>0.2752739273975065</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>5.99727841808437</v>
+        <v>4.178148566532133</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.0353119250451641</v>
+        <v>0.04045340899788236</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03614207654354979</v>
+        <v>0.05850484762473552</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3263985157108451</v>
+        <v>0.26217052600571</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8320203440217051</v>
+        <v>0.79488405397962</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8576058617600432</v>
+        <v>0.8113497298054145</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9228854289302598</v>
+        <v>0.9014443417684747</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3538063535641528</v>
+        <v>0.2810840015006622</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>6.022760995363729</v>
+        <v>4.300814035243829</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.035832965900776274</v>
+        <v>0.0404313043857669</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.03553887680926237</v>
+        <v>0.05807329403936446</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.35111662268267574</v>
+        <v>0.2636239038097328</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.834726937627316</v>
+        <v>0.8017306559571621</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8583550480266895</v>
+        <v>0.8145333066297923</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9195160121270682</v>
+        <v>0.9006828681419974</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.35521331648653426</v>
+        <v>0.2853339200498126</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>6.059905673083393</v>
+        <v>4.391803680911658</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03467152728828316</v>
+        <v>0.03832995653984608</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.03424690115902198</v>
+        <v>0.05670857524590192</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.32019318011126646</v>
+        <v>0.2636239038097328</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8368100367217084</v>
+        <v>0.802994873015401</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.860844847126908</v>
+        <v>0.8197465815500992</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9253608830587788</v>
+        <v>0.9080402248090841</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3599524562967356</v>
+        <v>0.2925019027722013</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>6.186223286405992</v>
+        <v>4.547744994794303</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03565311044119382</v>
+        <v>0.03998436843350499</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03527770380892622</v>
+        <v>0.055457836370825374</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3263985157108451</v>
+        <v>0.26423513302766294</v>
       </c>
     </row>
     <row r="22">
@@ -4515,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8225042595361453</v>
+        <v>0.7859934853420196</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8441163087241045</v>
+        <v>0.7992372602266075</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9121869128996803</v>
+        <v>0.8918913781782796</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.32988280906655065</v>
+        <v>0.2657367933370957</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>5.415039263024117</v>
+        <v>3.9810039508762043</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03834502178132373</v>
+        <v>0.04313185300535856</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03497489252382498</v>
+        <v>0.05403231035772814</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3052824878292428</v>
+        <v>0.24938283755976648</v>
       </c>
     </row>
     <row r="23">
@@ -4586,16 +4586,16 @@
         <v>40.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5833440693262523</v>
+        <v>0.5531288651434519</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.6663019881447649</v>
+        <v>0.6401644582530853</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.6506239525144887</v>
+        <v>0.6049931793865154</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5401431523836875</v>
+        <v>0.5031722948397152</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.925</v>
@@ -4612,16 +4612,16 @@
         <v>40.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.39453048347531194</v>
+        <v>0.3424368083263098</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.4846125950812954</v>
+        <v>0.4214033212889777</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.4425341713110627</v>
+        <v>0.35558777234137784</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.3098589665049135</v>
+        <v>0.2456961395984266</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.5</v>
@@ -4638,22 +4638,22 @@
         <v>40.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6738111062822373</v>
+        <v>0.6306910711337181</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7463386553397636</v>
+        <v>0.6254559317189731</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7370774663398073</v>
+        <v>0.6353138828296886</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6359665514786821</v>
+        <v>0.5989270007788424</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.725</v>
+        <v>0.775</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.5986094998689324</v>
+        <v>0.42290206176626033</v>
       </c>
     </row>
     <row r="30">
@@ -4664,22 +4664,22 @@
         <v>40.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.7184081184980624</v>
+        <v>0.7962926557439315</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7561350315284237</v>
+        <v>0.7589228076377612</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.7375066831671748</v>
+        <v>0.7694151260475517</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.6538918159521718</v>
+        <v>0.6964198851248374</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.1</v>
+        <v>2.675</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.0813097471264972</v>
+        <v>1.7597712555314886</v>
       </c>
     </row>
     <row r="31">
@@ -4690,22 +4690,22 @@
         <v>40.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7784309727626535</v>
+        <v>0.8154314835307522</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.726067020242972</v>
+        <v>0.790865489761368</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7284341238085895</v>
+        <v>0.8142279988174695</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.6834369824035369</v>
+        <v>0.7154361751263661</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.675</v>
+        <v>2.925</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7597712555314886</v>
+        <v>1.8727122795697373</v>
       </c>
     </row>
     <row r="32">
@@ -4716,22 +4716,22 @@
         <v>40.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.8030934386890324</v>
+        <v>0.21481194643423002</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.7723065517689156</v>
+        <v>0.29929271092354776</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7800510563654549</v>
+        <v>0.23536069991851127</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.7096151443823774</v>
+        <v>0.1895710375782737</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.925</v>
+        <v>0.95</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8727122795697373</v>
+        <v>0.22072142786315224</v>
       </c>
     </row>
     <row r="33">
@@ -4742,16 +4742,16 @@
         <v>40.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.5578005785647863</v>
+        <v>0.5668476327256623</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.514718549459001</v>
+        <v>0.5423593947335958</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.4878318984986033</v>
+        <v>0.510756143734388</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.44776065991244307</v>
+        <v>0.4463072739620989</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.65</v>
@@ -4768,16 +4768,16 @@
         <v>40.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6219221968494036</v>
+        <v>0.6518678090782638</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5629939720404317</v>
+        <v>0.6209193827028119</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5306988832756787</v>
+        <v>0.5950205137079926</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.48565955220228874</v>
+        <v>0.5076895072690234</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>2.95</v>
@@ -4794,16 +4794,16 @@
         <v>40.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5918128740773674</v>
+        <v>0.6077227497874012</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5559573091769431</v>
+        <v>0.5752549942975399</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5143602649571417</v>
+        <v>0.5333716560501753</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.476974035910335</v>
+        <v>0.4832618760899543</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>2.65</v>
@@ -4820,16 +4820,16 @@
         <v>40.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5589448695634557</v>
+        <v>0.5466237795327352</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5457379714647292</v>
+        <v>0.5418526782730744</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5136042279532722</v>
+        <v>0.5028168445294676</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4415149127022151</v>
+        <v>0.41419327074684487</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.4</v>
@@ -4846,16 +4846,16 @@
         <v>40.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.47729389570629527</v>
+        <v>0.47747946482801346</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5113156925152103</v>
+        <v>0.4855157811344217</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.46190820888134315</v>
+        <v>0.43629644735752154</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.40183638290083645</v>
+        <v>0.3942191035939468</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>3.05</v>
@@ -4872,16 +4872,16 @@
         <v>40.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.712672667772656</v>
+        <v>0.7009203985688682</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.7297236370630805</v>
+        <v>0.6958766700412293</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.716964108272716</v>
+        <v>0.6913155335230622</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.657281485382726</v>
+        <v>0.637561431820364</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.825</v>
@@ -4986,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.225</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0</v>
+        <v>0.775</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.575</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.075</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5012,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.225</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.075</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.375</v>
+        <v>0.275</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0</v>
+        <v>0.275</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.575</v>
+        <v>0.125</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,19 +5041,19 @@
         <v>0.225</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
         <v>0.275</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.275</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5064,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.225</v>
+        <v>0.05</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.275</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5317,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8074502247912652</v>
+        <v>0.8267656415694592</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8407487774714881</v>
+        <v>0.9449093613319142</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.817996788646504</v>
+        <v>0.9208149309445688</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5689370264566261</v>
+        <v>0.8511306942584911</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.279386645342475</v>
+        <v>17.15190428313737</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.04535498862963682</v>
+        <v>0.016380235446704</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.0625</v>
+        <v>2.125</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.6448762552733545</v>
+        <v>1.2958128931798194</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5776029174161427</v>
+        <v>0.8523008315428651</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7567418061125707</v>
+        <v>0.9304401993355482</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7811280358608692</v>
+        <v>0.9314022963688595</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7112068048767268</v>
+        <v>0.8716117330253612</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.54330122388087</v>
+        <v>0.8716117330253612</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.5688811901204858</v>
+        <v>13.577747461885053</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.05867206508775876</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.00495128077713087</v>
-      </c>
+        <v>0.02182152582650878</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5677749739576688</v>
+        <v>0.8716117330253613</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7541237113402062</v>
+        <v>0.5361507128309573</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8170330570067422</v>
+        <v>0.9202617814871306</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.759866867397506</v>
+        <v>0.8523008315428651</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5981497826424139</v>
+        <v>0.8523008315428651</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.465468153101564</v>
+        <v>11.541037643556114</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.06002508163001743</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.007837343965950646</v>
-      </c>
+        <v>0.03543212607925337</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.598161721704712</v>
+        <v>0.8523008315428651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7551622418879056</v>
+        <v>0.5474701534963047</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7890592896876079</v>
+        <v>0.9067928992395331</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7160879220532435</v>
+        <v>0.829479518207247</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5549402912521987</v>
+        <v>0.8294795182072467</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.7406685912788116</v>
+        <v>9.728796323897061</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.05993869381564286</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0016373723465629942</v>
-      </c>
+        <v>0.039210325791594856</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5677749739576688</v>
+        <v>0.8294795182072467</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7730572160546539</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8051417340348612</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7518223719647641</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5793568080510215</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.131935230188826</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.06100591059838815</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012448340074878578</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5874308608746165</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,253 +5478,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>40.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.8948592620602887</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9418872086262664</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.8928414289789558</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.8695913104797077</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.775</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.42290206176626033</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>40.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7945879285088792</v>
+        <v>0.9628030582520422</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8459921734959405</v>
+        <v>0.9486695281011257</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7887526047878473</v>
+        <v>0.9107037202165605</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6861754324800553</v>
+        <v>0.8836878023158021</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.925</v>
+        <v>2.675</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.5723321610429581</v>
+        <v>1.7597712555314886</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>40.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.816024481101655</v>
+        <v>0.9690157563289465</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7959855528679483</v>
+        <v>0.95668476436642</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6933804535398123</v>
+        <v>0.9286422348585714</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6357072528610997</v>
+        <v>0.8919548719968134</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.5</v>
+        <v>2.925</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.8770580193070292</v>
+        <v>1.8727122795697373</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>40.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7929189305604274</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8353805833348922</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7745603504052078</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6772358638051017</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.725</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.5986094998689324</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.225</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.775</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>40.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8641253607062177</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8131195154019312</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7193192057547376</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6623453516522548</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.1</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.0813097471264972</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.225</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.075</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.025</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.275</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.275</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.125</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.225</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="225">
+      <c r="E27" t="n" s="227">
+        <v>0.275</v>
+      </c>
+      <c r="F27" t="n" s="228">
         <v>0.2</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.675</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.125</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.025</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.175</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.075</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.725</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.35</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.575</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.075</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.05</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.375</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.575</v>
-      </c>
-      <c r="F30" t="n" s="228">
+      <c r="G27" t="n" s="229">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5784,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="230">
+      <c r="A1" t="s" s="232">
         <v>45</v>
       </c>
     </row>
@@ -5799,66 +5742,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="244">
+      <c r="A4" t="s" s="246">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="258">
+      <c r="A5" t="s" s="260">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="258">
+      <c r="B5" t="s" s="260">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="258">
+      <c r="C5" t="s" s="260">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="258">
+      <c r="D5" t="s" s="260">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="258">
+      <c r="E5" t="s" s="260">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="258">
+      <c r="F5" t="s" s="260">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="258">
+      <c r="G5" t="s" s="260">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="258">
+      <c r="H5" t="s" s="260">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="258">
+      <c r="I5" t="s" s="260">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="259">
-        <v>0.8023560209424083</v>
-      </c>
-      <c r="B6" t="n" s="260">
-        <v>0.8201399781025693</v>
-      </c>
-      <c r="C6" t="n" s="261">
-        <v>0.6951163382785308</v>
-      </c>
-      <c r="D6" t="n" s="262">
-        <v>0.6951163382785308</v>
-      </c>
-      <c r="E6" t="n" s="263">
-        <v>4.559879229694927</v>
-      </c>
-      <c r="F6" t="n" s="264">
-        <v>0.05832949936907284</v>
-      </c>
-      <c r="G6" t="n" s="265">
-        <v>2.8</v>
-      </c>
-      <c r="H6" t="n" s="266">
-        <v>1.3996336517011725</v>
-      </c>
-      <c r="I6" t="n" s="267">
-        <v>0.6951163382785307</v>
+      <c r="A6" t="n" s="261">
+        <v>0.6592906941497423</v>
+      </c>
+      <c r="B6" t="n" s="262">
+        <v>0.7652098719488385</v>
+      </c>
+      <c r="C6" t="n" s="263">
+        <v>0.7138102372920654</v>
+      </c>
+      <c r="D6" t="n" s="264">
+        <v>0.5206996139008818</v>
+      </c>
+      <c r="E6" t="n" s="265">
+        <v>3.2591228528232548</v>
+      </c>
+      <c r="F6" t="n" s="266">
+        <v>0.044983618838811384</v>
+      </c>
+      <c r="G6" t="n" s="267">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="H6" t="n" s="268">
+        <v>0.9694771992605292</v>
+      </c>
+      <c r="I6" t="n" s="269">
+        <v>0.46939429731670096</v>
       </c>
     </row>
     <row r="7">
@@ -5872,86 +5815,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="271">
+      <c r="A9" t="s" s="273">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="285">
+      <c r="B10" t="s" s="287">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="285">
+      <c r="C10" t="s" s="287">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="285">
+      <c r="D10" t="s" s="287">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="285">
+      <c r="E10" t="s" s="287">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="285">
+      <c r="F10" t="s" s="287">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="285">
+      <c r="G10" t="s" s="287">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="285">
+      <c r="H10" t="s" s="287">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="285">
+      <c r="I10" t="s" s="287">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="281">
+      <c r="A11" t="s" s="283">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="288">
+        <v>0.8023560209424083</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8201399781025693</v>
+      </c>
+      <c r="D11" t="n" s="290">
+        <v>0.6951163382785308</v>
+      </c>
+      <c r="E11" t="n" s="291">
+        <v>0.6951163382785308</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.559879229694927</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.05832949936907284</v>
+      </c>
+      <c r="H11" s="294"/>
+      <c r="I11" t="n" s="295">
+        <v>0.6951163382785307</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="283">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="286">
-        <v>0.6951163382785308</v>
-      </c>
-      <c r="C11" t="n" s="287">
-        <v>0.6951163382785308</v>
-      </c>
-      <c r="D11" t="n" s="288">
-        <v>0.4831867237417531</v>
-      </c>
-      <c r="E11" t="n" s="289">
-        <v>0.6951163382785308</v>
-      </c>
-      <c r="F11" s="290"/>
-      <c r="G11" s="291"/>
-      <c r="H11" t="n" s="292">
-        <v>0.6951163382785308</v>
-      </c>
-      <c r="I11" t="n" s="293">
-        <v>0.6951163382785308</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="281">
+      <c r="B12" t="n" s="288">
+        <v>0.1820987654320989</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.5689633103226925</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.39758820610741374</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.39758820610741386</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.3199881215416787</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.060093886292819</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.3975882061074138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="286">
-        <v>0.4831867237417531</v>
-      </c>
-      <c r="C12" t="n" s="287">
-        <v>0.6951163382785308</v>
-      </c>
-      <c r="D12" s="288"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="291"/>
-      <c r="H12" t="n" s="292">
-        <v>0.4831867237417531</v>
-      </c>
-      <c r="I12" t="n" s="293">
-        <v>0.6951163382785308</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.26633165829145744</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6388949489920766</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.4693942973167009</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.4693942973167009</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.7692772427546515</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.0678515869782918</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.46939429731670096</v>
       </c>
     </row>
     <row r="14">
@@ -5960,174 +5933,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="297">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="311">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="311">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="311">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="311">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="311">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="311">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="311">
+      <c r="H17" t="s" s="313">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="307">
+    <row r="18">
+      <c r="A18" t="s" s="309">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>40.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.5232428920422001</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.7544242633978597</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.524747726907829</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.4647983174331363</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.95</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.22072142786315224</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="312">
+      <c r="B19" t="n" s="314">
         <v>40.0</v>
       </c>
-      <c r="C17" t="n" s="313">
-        <v>0.8966585390256182</v>
-      </c>
-      <c r="D17" t="n" s="314">
-        <v>0.9206292245737505</v>
-      </c>
-      <c r="E17" t="n" s="315">
-        <v>0.7675620698094335</v>
-      </c>
-      <c r="F17" t="n" s="316">
-        <v>0.6951163382785307</v>
-      </c>
-      <c r="G17" t="n" s="317">
+      <c r="C19" t="n" s="315">
+        <v>0.8986260196523154</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8746516578922716</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8092297625334746</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7141845787460193</v>
+      </c>
+      <c r="G19" t="n" s="319">
         <v>2.65</v>
       </c>
-      <c r="H17" t="n" s="318">
+      <c r="H19" t="n" s="320">
         <v>1.3116832012772064</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="307">
+    <row r="20">
+      <c r="A20" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="312">
+      <c r="B20" t="n" s="314">
         <v>40.0</v>
       </c>
-      <c r="C18" t="n" s="313">
-        <v>0.9415541992304984</v>
-      </c>
-      <c r="D18" t="n" s="314">
-        <v>0.9206292245737506</v>
-      </c>
-      <c r="E18" t="n" s="315">
-        <v>0.7675620698094335</v>
-      </c>
-      <c r="F18" t="n" s="316">
-        <v>0.6951163382785307</v>
-      </c>
-      <c r="G18" t="n" s="317">
+      <c r="C20" t="n" s="315">
+        <v>0.9363872002071433</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8456357151243604</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7568393369724902</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6996341845285845</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.95</v>
       </c>
-      <c r="H18" t="n" s="318">
+      <c r="H20" t="n" s="320">
         <v>1.7238894604338388</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="322">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="336">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="336">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="336">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="336">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="336">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="336">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="336">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="332">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.05</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.95</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="337">
+      <c r="B26" t="n" s="339">
         <v>0.05</v>
       </c>
-      <c r="C23" t="n" s="338">
+      <c r="C26" t="n" s="340">
         <v>0.225</v>
       </c>
-      <c r="D23" t="n" s="339">
+      <c r="D26" t="n" s="341">
         <v>0.05</v>
       </c>
-      <c r="E23" t="n" s="340">
+      <c r="E26" t="n" s="342">
         <v>0.425</v>
       </c>
-      <c r="F23" t="n" s="341">
+      <c r="F26" t="n" s="343">
         <v>0.2</v>
       </c>
-      <c r="G23" t="n" s="342">
+      <c r="G26" t="n" s="344">
         <v>0.05</v>
       </c>
-      <c r="H23" t="n" s="343">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="332">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="337">
+      <c r="B27" t="n" s="339">
         <v>0.05</v>
       </c>
-      <c r="C24" t="n" s="338">
+      <c r="C27" t="n" s="340">
         <v>0.225</v>
       </c>
-      <c r="D24" t="n" s="339">
+      <c r="D27" t="n" s="341">
         <v>0.175</v>
       </c>
-      <c r="E24" t="n" s="340">
+      <c r="E27" t="n" s="342">
         <v>0.15</v>
       </c>
-      <c r="F24" t="n" s="341">
+      <c r="F27" t="n" s="343">
         <v>0.075</v>
       </c>
-      <c r="G24" t="n" s="342">
+      <c r="G27" t="n" s="344">
         <v>0.325</v>
       </c>
-      <c r="H24" t="n" s="343">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6157,7 +6187,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="345">
+      <c r="A1" t="s" s="347">
         <v>46</v>
       </c>
     </row>
@@ -6172,66 +6202,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="359">
+      <c r="A4" t="s" s="361">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="373">
+      <c r="A5" t="s" s="375">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="373">
+      <c r="B5" t="s" s="375">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="373">
+      <c r="C5" t="s" s="375">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="373">
+      <c r="D5" t="s" s="375">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="373">
+      <c r="E5" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="373">
+      <c r="F5" t="s" s="375">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="373">
+      <c r="G5" t="s" s="375">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="373">
+      <c r="H5" t="s" s="375">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="373">
+      <c r="I5" t="s" s="375">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="374">
-        <v>0.7711083437110835</v>
-      </c>
-      <c r="B6" t="n" s="375">
-        <v>0.7732689227058851</v>
-      </c>
-      <c r="C6" t="n" s="376">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="D6" t="n" s="377">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="E6" t="n" s="378">
-        <v>3.410511394972129</v>
-      </c>
-      <c r="F6" t="n" s="379">
-        <v>0.07183818521616568</v>
-      </c>
-      <c r="G6" t="n" s="380">
-        <v>2.9375</v>
-      </c>
-      <c r="H6" t="n" s="381">
-        <v>0.8021405657236687</v>
-      </c>
-      <c r="I6" t="n" s="382">
-        <v>0.6303491751521757</v>
+      <c r="A6" t="n" s="376">
+        <v>0.6993538578487266</v>
+      </c>
+      <c r="B6" t="n" s="377">
+        <v>0.7401026090055518</v>
+      </c>
+      <c r="C6" t="n" s="378">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="D6" t="n" s="379">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="E6" t="n" s="380">
+        <v>2.8476723301210884</v>
+      </c>
+      <c r="F6" t="n" s="381">
+        <v>0.08352833361654885</v>
+      </c>
+      <c r="G6" t="n" s="382">
+        <v>4.2125</v>
+      </c>
+      <c r="H6" t="n" s="383">
+        <v>0.6493339783074773</v>
+      </c>
+      <c r="I6" t="n" s="384">
+        <v>0.5874308608746165</v>
       </c>
     </row>
     <row r="7">
@@ -6245,81 +6275,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="386">
+      <c r="A9" t="s" s="388">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="400">
+      <c r="B10" t="s" s="402">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="400">
+      <c r="C10" t="s" s="402">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="400">
+      <c r="D10" t="s" s="402">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="400">
+      <c r="E10" t="s" s="402">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="400">
+      <c r="F10" t="s" s="402">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="400">
+      <c r="G10" t="s" s="402">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="400">
+      <c r="H10" t="s" s="402">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="400">
+      <c r="I10" t="s" s="402">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="396">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="401">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="C11" t="n" s="402">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="D11" t="n" s="403">
-        <v>0.39734008261502807</v>
-      </c>
-      <c r="E11" t="n" s="404">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="F11" s="405"/>
-      <c r="G11" s="406"/>
-      <c r="H11" t="n" s="407">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="I11" t="n" s="408">
-        <v>0.6303491751521757</v>
+      <c r="A11" t="s" s="398">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="403">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="C11" t="n" s="404">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="D11" t="n" s="405">
+        <v>0.34507501630789283</v>
+      </c>
+      <c r="E11" t="n" s="406">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="F11" s="407"/>
+      <c r="G11" s="408"/>
+      <c r="H11" t="n" s="409">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="I11" t="n" s="410">
+        <v>0.5874308608746164</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="396">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="401">
-        <v>0.39734008261502807</v>
-      </c>
-      <c r="C12" t="n" s="402">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="D12" s="403"/>
-      <c r="E12" s="404"/>
-      <c r="F12" s="405"/>
-      <c r="G12" s="406"/>
-      <c r="H12" t="n" s="407">
-        <v>0.39734008261502807</v>
-      </c>
-      <c r="I12" t="n" s="408">
-        <v>0.6303491751521757</v>
+      <c r="A12" t="s" s="398">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="403">
+        <v>0.34507501630789283</v>
+      </c>
+      <c r="C12" t="n" s="404">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="D12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="408"/>
+      <c r="H12" t="n" s="409">
+        <v>0.34507501630789283</v>
+      </c>
+      <c r="I12" t="n" s="410">
+        <v>0.5874308608746164</v>
       </c>
     </row>
     <row r="13">
@@ -6333,84 +6363,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="412">
+      <c r="A15" t="s" s="414">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="426">
+      <c r="B16" t="s" s="428">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="426">
+      <c r="C16" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="426">
+      <c r="D16" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="426">
+      <c r="E16" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="426">
+      <c r="F16" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="426">
+      <c r="G16" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="426">
+      <c r="H16" t="s" s="428">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="422">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="427">
+      <c r="A17" t="s" s="424">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="429">
         <v>40.0</v>
       </c>
-      <c r="C17" t="n" s="428">
-        <v>0.8928673292542068</v>
-      </c>
-      <c r="D17" t="n" s="429">
-        <v>0.9028701942007433</v>
-      </c>
-      <c r="E17" t="n" s="430">
-        <v>0.7168295675288525</v>
-      </c>
-      <c r="F17" t="n" s="431">
-        <v>0.6303491751521758</v>
-      </c>
-      <c r="G17" t="n" s="432">
-        <v>3.05</v>
-      </c>
-      <c r="H17" t="n" s="433">
-        <v>0.8458041235325207</v>
+      <c r="C17" t="n" s="430">
+        <v>0.8374296931112475</v>
+      </c>
+      <c r="D17" t="n" s="431">
+        <v>0.8909070829426087</v>
+      </c>
+      <c r="E17" t="n" s="432">
+        <v>0.6828271659733923</v>
+      </c>
+      <c r="F17" t="n" s="433">
+        <v>0.5874308608746165</v>
+      </c>
+      <c r="G17" t="n" s="434">
+        <v>3.925</v>
+      </c>
+      <c r="H17" t="n" s="435">
+        <v>0.5723321610429581</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="422">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="427">
+      <c r="A18" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="429">
         <v>40.0</v>
       </c>
-      <c r="C18" t="n" s="428">
-        <v>0.9124067406170234</v>
-      </c>
-      <c r="D18" t="n" s="429">
-        <v>0.9028701942007433</v>
-      </c>
-      <c r="E18" t="n" s="430">
-        <v>0.7168295675288529</v>
-      </c>
-      <c r="F18" t="n" s="431">
-        <v>0.6303491751521757</v>
-      </c>
-      <c r="G18" t="n" s="432">
-        <v>2.825</v>
-      </c>
-      <c r="H18" t="n" s="433">
-        <v>0.9306049865682222</v>
+      <c r="C18" t="n" s="430">
+        <v>0.9342369519435578</v>
+      </c>
+      <c r="D18" t="n" s="431">
+        <v>0.8909070829426087</v>
+      </c>
+      <c r="E18" t="n" s="432">
+        <v>0.6828271659733922</v>
+      </c>
+      <c r="F18" t="n" s="433">
+        <v>0.5874308608746164</v>
+      </c>
+      <c r="G18" t="n" s="434">
+        <v>4.5</v>
+      </c>
+      <c r="H18" t="n" s="435">
+        <v>0.8770580193070292</v>
       </c>
     </row>
     <row r="19">
@@ -6424,74 +6454,65 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="437">
+      <c r="A21" t="s" s="439">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="451">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="451">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="451">
+      <c r="B22" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="451">
+      <c r="C22" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="451">
+      <c r="D22" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="451">
+      <c r="E22" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s" s="453">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="447">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="452">
+      <c r="A23" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n" s="455">
+        <v>0.2</v>
+      </c>
+      <c r="D23" t="n" s="456">
+        <v>0.675</v>
+      </c>
+      <c r="E23" t="n" s="457">
+        <v>0.125</v>
+      </c>
+      <c r="F23" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="454">
         <v>0.025</v>
       </c>
-      <c r="C23" t="n" s="453">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n" s="454">
+      <c r="C24" t="n" s="455">
         <v>0.175</v>
       </c>
-      <c r="E23" t="n" s="455">
-        <v>0.5</v>
-      </c>
-      <c r="F23" t="n" s="456">
-        <v>0.3</v>
-      </c>
-      <c r="G23" t="n" s="457">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="447">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="452">
-        <v>0.025</v>
-      </c>
-      <c r="C24" t="n" s="453">
-        <v>0.025</v>
-      </c>
-      <c r="D24" t="n" s="454">
-        <v>0.3</v>
-      </c>
-      <c r="E24" t="n" s="455">
-        <v>0.4</v>
-      </c>
-      <c r="F24" t="n" s="456">
-        <v>0.25</v>
-      </c>
-      <c r="G24" t="n" s="457">
+      <c r="D24" t="n" s="456">
+        <v>0.075</v>
+      </c>
+      <c r="E24" t="n" s="457">
+        <v>0.725</v>
+      </c>
+      <c r="F24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6521,7 +6542,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="459">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6536,66 +6557,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="473">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="487">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="487">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="487">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="487">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="487">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="487">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="487">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="487">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="487">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="488">
-        <v>0.9304401993355482</v>
-      </c>
-      <c r="B6" t="n" s="489">
-        <v>0.9314022963688595</v>
-      </c>
-      <c r="C6" t="n" s="490">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="D6" t="n" s="491">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="E6" t="n" s="492">
-        <v>13.577747461885053</v>
-      </c>
-      <c r="F6" t="n" s="493">
-        <v>0.02182152582650878</v>
-      </c>
-      <c r="G6" t="n" s="494">
-        <v>2.8</v>
-      </c>
-      <c r="H6" t="n" s="495">
-        <v>1.7570371331248202</v>
-      </c>
-      <c r="I6" t="n" s="496">
-        <v>0.8716117330253613</v>
+      <c r="A6" t="n" s="489">
+        <v>0.8095421315890727</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.8096654905534628</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.6801999640671834</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.6801999640671834</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>4.253907990242249</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.060199385071956206</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>2.525</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.2907461566960565</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.6801999640671834</v>
       </c>
     </row>
     <row r="7">
@@ -6609,81 +6630,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="500">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="514">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="514">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="514">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="514">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="514">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="514">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="514">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="514">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="510">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="515">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="C11" t="n" s="516">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="D11" t="n" s="517">
-        <v>0.7597070131474735</v>
-      </c>
-      <c r="E11" t="n" s="518">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="F11" s="519"/>
-      <c r="G11" s="520"/>
-      <c r="H11" t="n" s="521">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="I11" t="n" s="522">
-        <v>0.8716117330253612</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.6801999640671834</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.6801999640671834</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.46267199111699764</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.6801999640671834</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.6801999640671834</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.6801999640671834</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="510">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="515">
-        <v>0.7597070131474735</v>
-      </c>
-      <c r="C12" t="n" s="516">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="D12" s="517"/>
-      <c r="E12" s="518"/>
-      <c r="F12" s="519"/>
-      <c r="G12" s="520"/>
-      <c r="H12" t="n" s="521">
-        <v>0.7597070131474735</v>
-      </c>
-      <c r="I12" t="n" s="522">
-        <v>0.8716117330253612</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.46267199111699764</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.6801999640671834</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.46267199111699764</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.6801999640671834</v>
       </c>
     </row>
     <row r="13">
@@ -6697,84 +6718,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="526">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="540">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="540">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="540">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="540">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="540">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="540">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="540">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="536">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="541">
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>40.0</v>
       </c>
-      <c r="C17" t="n" s="542">
-        <v>0.9652753453629401</v>
-      </c>
-      <c r="D17" t="n" s="543">
-        <v>0.9673705941947383</v>
-      </c>
-      <c r="E17" t="n" s="544">
-        <v>0.9031386234052985</v>
-      </c>
-      <c r="F17" t="n" s="545">
-        <v>0.8716117330253612</v>
-      </c>
-      <c r="G17" t="n" s="546">
-        <v>2.675</v>
-      </c>
-      <c r="H17" t="n" s="547">
-        <v>1.7597712555314886</v>
+      <c r="C17" t="n" s="543">
+        <v>0.9185322168291111</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.9165696820392826</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.7559338447192919</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.6801999640671833</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>2.65</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.4241506690674017</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="536">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="541">
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>40.0</v>
       </c>
-      <c r="C18" t="n" s="542">
-        <v>0.9694016959315316</v>
-      </c>
-      <c r="D18" t="n" s="543">
-        <v>0.9673705941947381</v>
-      </c>
-      <c r="E18" t="n" s="544">
-        <v>0.9031386234052984</v>
-      </c>
-      <c r="F18" t="n" s="545">
-        <v>0.8716117330253613</v>
-      </c>
-      <c r="G18" t="n" s="546">
-        <v>2.925</v>
-      </c>
-      <c r="H18" t="n" s="547">
-        <v>1.8727122795697373</v>
+      <c r="C18" t="n" s="543">
+        <v>0.9145848176089658</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.9165696820392826</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.7559338447192919</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.6801999640671832</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.4</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.3922864426767714</v>
       </c>
     </row>
     <row r="19">
@@ -6788,83 +6809,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="551">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="565">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="565">
+      <c r="C22" t="s" s="566">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="565">
+      <c r="D22" t="s" s="566">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="565">
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="565">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="565">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="565">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="561">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="566">
-        <v>0.225</v>
-      </c>
-      <c r="C23" t="n" s="567">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.125</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.15</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.025</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.35</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.35</v>
+      </c>
+      <c r="G23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.175</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.1</v>
+      </c>
+      <c r="D24" t="n" s="569">
         <v>0.075</v>
       </c>
-      <c r="D23" t="n" s="568">
-        <v>0.025</v>
-      </c>
-      <c r="E23" t="n" s="569">
-        <v>0.275</v>
-      </c>
-      <c r="F23" t="n" s="570">
-        <v>0.275</v>
-      </c>
-      <c r="G23" t="n" s="571">
-        <v>0.125</v>
-      </c>
-      <c r="H23" t="n" s="572">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="561">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="566">
-        <v>0.225</v>
-      </c>
-      <c r="C24" t="n" s="567">
-        <v>0.05</v>
-      </c>
-      <c r="D24" t="n" s="568">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="569">
-        <v>0.275</v>
-      </c>
-      <c r="F24" t="n" s="570">
+      <c r="E24" t="n" s="570">
+        <v>0.45</v>
+      </c>
+      <c r="F24" t="n" s="571">
         <v>0.2</v>
       </c>
-      <c r="G24" t="n" s="571">
-        <v>0.25</v>
-      </c>
-      <c r="H24" t="n" s="572">
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6944,31 +6956,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.8095421315890727</v>
+        <v>0.7711083437110835</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.8096654905534628</v>
+        <v>0.7732689227058851</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>4.253907990242249</v>
+        <v>3.410511394972129</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.060199385071956206</v>
+        <v>0.07183818521616568</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>2.525</v>
+        <v>2.9375</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.2907461566960565</v>
+        <v>0.8021405657236687</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
     </row>
     <row r="7">
@@ -7015,48 +7027,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.46267199111699764</v>
+        <v>0.39734008261502807</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.46267199111699764</v>
+        <v>0.39734008261502807</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.46267199111699764</v>
+        <v>0.39734008261502807</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.6801999640671834</v>
+        <v>0.6303491751521757</v>
       </c>
     </row>
     <row r="13">
@@ -7100,54 +7112,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="656">
         <v>40.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.9185322168291111</v>
+        <v>0.8928673292542068</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.9165696820392826</v>
+        <v>0.9028701942007433</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.7559338447192919</v>
+        <v>0.7168295675288525</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.6801999640671833</v>
+        <v>0.6303491751521758</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.4241506690674017</v>
+        <v>0.8458041235325207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="656">
         <v>40.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.9145848176089658</v>
+        <v>0.9124067406170234</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.9165696820392826</v>
+        <v>0.9028701942007433</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.7559338447192919</v>
+        <v>0.7168295675288529</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.6801999640671832</v>
+        <v>0.6303491751521757</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>2.4</v>
+        <v>2.825</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>1.3922864426767714</v>
+        <v>0.9306049865682222</v>
       </c>
     </row>
     <row r="19">
@@ -7188,22 +7200,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="681">
-        <v>0.125</v>
+        <v>0.025</v>
       </c>
       <c r="C23" t="n" s="682">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="683">
-        <v>0.025</v>
+        <v>0.175</v>
       </c>
       <c r="E23" t="n" s="684">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7211,22 +7223,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.175</v>
+        <v>0.025</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.1</v>
+        <v>0.025</v>
       </c>
       <c r="D24" t="n" s="683">
-        <v>0.075</v>
+        <v>0.3</v>
       </c>
       <c r="E24" t="n" s="684">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F24" t="n" s="685">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7308,31 +7320,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.8359446157445706</v>
+        <v>0.8034157125506625</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.8609017315871709</v>
+        <v>0.8325792235881524</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.9216725296056327</v>
+        <v>0.9048321076396721</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.3823028062981853</v>
+        <v>0.3558994823334398</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>6.189162103960229</v>
+        <v>4.972974331095237</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.03455746984155498</v>
+        <v>0.03939844178251751</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>3.2775</v>
+        <v>2.8583333333333334</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.7724378657278891</v>
+        <v>0.7615263907517144</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.3512517761839007</v>
+        <v>0.3159555033449549</v>
       </c>
     </row>
     <row r="7">
@@ -7379,292 +7391,268 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.8264094955489614</v>
+        <v>0.7913396205556452</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.8434502430687394</v>
+        <v>0.8074080349419475</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.9028104730185714</v>
+        <v>0.87606530042694</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.3744676661515752</v>
+        <v>0.34384949093639217</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>5.387745465737707</v>
+        <v>4.192324610731153</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.037105966066799785</v>
+        <v>0.043868887548425294</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.038732736833570106</v>
+        <v>0.04410039706096038</v>
       </c>
       <c r="I11" t="n" s="751">
-        <v>0.3511841994332882</v>
+        <v>0.3159555033449549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.8348363413165878</v>
+        <v>0.7458771076324313</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.8602825240347629</v>
+        <v>0.7912071310363378</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.91489924930294</v>
+        <v>0.8764121615243695</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.40622673328324954</v>
+        <v>0.32142637949247754</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>6.157300782106949</v>
+        <v>3.789435601720852</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.03496609620247176</v>
+        <v>0.053928988130212574</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.030843090770839902</v>
+        <v>0.045165061498649066</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.357151314514186</v>
+        <v>0.2920923799469767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.8237535120720034</v>
+        <v>0.7388262322472847</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.8399222840092271</v>
+        <v>0.7833843156200653</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.902705597813364</v>
+        <v>0.8649727405732637</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.3682865394661419</v>
+        <v>0.3113226831322446</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>5.2469656929490505</v>
+        <v>3.616470884195269</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.03739596113541598</v>
+        <v>0.05654041744790996</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.039189527412566746</v>
+        <v>0.04162600921886042</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.3343147621839986</v>
+        <v>0.27294344085100264</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.8068961383223883</v>
+        <v>0.7916265640038499</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.8352993497433733</v>
+        <v>0.812257830862753</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.9029509086114913</v>
+        <v>0.8886954789820732</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.3604148579764304</v>
+        <v>0.35098933594381604</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>5.071621444371104</v>
+        <v>4.326453852085628</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.04030580554707792</v>
+        <v>0.04240278938597455</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.03942953626964142</v>
+        <v>0.06347395888340092</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.3343147621839986</v>
+        <v>0.315639344265197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.830663533677644</v>
+        <v>0.8060162944862717</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.8603651919536627</v>
+        <v>0.8371490495415834</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.9159155899809189</v>
+        <v>0.9017997086048863</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.40639268049491306</v>
+        <v>0.3911990685821875</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>6.161538114967389</v>
+        <v>5.140584363708372</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.036203780327574514</v>
+        <v>0.03926522039795597</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.037167778790016474</v>
+        <v>0.0523776872967164</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.4032556762161388</v>
+        <v>0.3343147621839986</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.8100650188348212</v>
+        <v>0.7892278590195799</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.8385911805774555</v>
+        <v>0.8276043059464576</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.8981789238586554</v>
+        <v>0.8893362979734795</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.36599395850842575</v>
+        <v>0.3750297308102427</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>5.1954483254235795</v>
+        <v>4.800608915959475</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.040162961712869344</v>
+        <v>0.03956607133292488</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.03824879801525587</v>
+        <v>0.056680767158069904</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.3511841994332882</v>
+        <v>0.33148480138127207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.8030362528273436</v>
+        <v>0.8065725871705087</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.8407979072819782</v>
+        <v>0.8395815882434465</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.8976750840243913</v>
+        <v>0.8966230301548268</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.3698063494364365</v>
+        <v>0.3954826726628111</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>5.281324465823428</v>
+        <v>5.2336984205876105</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.043478057299862344</v>
+        <v>0.03506471391831092</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.03445546038279456</v>
+        <v>0.050179035108713424</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.3388251459473729</v>
+        <v>0.34674139242052643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.798228801797634</v>
+        <v>0.7941319347514051</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.8345186336575985</v>
+        <v>0.8295199312972006</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.894922359143682</v>
+        <v>0.9018371083114837</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.3591102263139314</v>
+        <v>0.37819589552804084</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>5.042976451686264</v>
+        <v>4.865788344696859</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.045276590210836604</v>
+        <v>0.04153977187847305</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.03280694437234438</v>
+        <v>0.058395994760721326</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.3312120943842093</v>
+        <v>0.3232958479110558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.8288078374263587</v>
+        <v>0.7674979887369268</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.8588357045473647</v>
+        <v>0.8016243283281015</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.9125839270615986</v>
+        <v>0.878823922229415</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.4033390838010602</v>
+        <v>0.335600083912746</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>6.083944256538505</v>
+        <v>4.040940714010234</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.03487395139735264</v>
+        <v>0.04663141558864646</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.035676468782557126</v>
+        <v>0.05880134595839303</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.4032556762161388</v>
+        <v>0.2919365693231535</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.8357596764875794</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.8616523557637539</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.9091041712546301</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.40898996754968864</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>6.228167891983571</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.03237727551477747</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.03286654492507673</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.357151314514186</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7673,359 +7661,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="755">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="769">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="769">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="769">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="769">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="769">
-        <v>10</v>
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>40.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.7035124709022404</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.7111481636227182</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.7224428783798151</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.6702295871329256</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.775</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.42290206176626033</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.6282787696337915</v>
+        <v>0.8427771271238703</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.7087151398819367</v>
+        <v>0.817847201597069</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.6849492201863607</v>
+        <v>0.8281496292708538</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.5801830166697389</v>
+        <v>0.7364770187237613</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.925</v>
+        <v>2.675</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>0.5723321610429581</v>
+        <v>1.7597712555314886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.45228420285699905</v>
+        <v>0.873357764383378</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.5371443756593033</v>
+        <v>0.8659250379097622</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.4903751679497083</v>
+        <v>0.8913557836736975</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.35506019986386933</v>
+        <v>0.7764411147047579</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>4.5</v>
+        <v>2.925</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>0.8770580193070292</v>
+        <v>1.8727122795697373</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.668352186468307</v>
+        <v>0.5959852975409481</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.7421071984326433</v>
+        <v>0.677173637139916</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.7217397927937371</v>
+        <v>0.6234382920631103</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.6219826050814615</v>
+        <v>0.5379821214592018</v>
       </c>
       <c r="G27" t="n" s="775">
-        <v>3.725</v>
+        <v>3.925</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>0.5986094998689324</v>
+        <v>0.5723321610429581</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.7610238135863999</v>
+        <v>0.3988331165032655</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.7846320749760104</v>
+        <v>0.48583802341604804</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.7637681647508962</v>
+        <v>0.4066126970253086</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.6915241580840231</v>
+        <v>0.2832754468371338</v>
       </c>
       <c r="G28" t="n" s="775">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.0813097471264972</v>
+        <v>0.8770580193070292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.5080472377066828</v>
+        <v>0.6229814508904178</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.5362478855386177</v>
+        <v>0.5627788524916247</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.4776132633097932</v>
+        <v>0.5085215117695212</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.41993761463038026</v>
+        <v>0.4688262034571933</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>0.8458041235325207</v>
+        <v>1.4241506690674017</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.7541587976741049</v>
+        <v>0.5169926853735068</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.7544923187299998</v>
+        <v>0.46545474897134187</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.73856280803172</v>
+        <v>0.3978248601143173</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.6943874317610826</v>
+        <v>0.34424217409918484</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>2.825</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>0.9306049865682222</v>
+        <v>1.3922864426767714</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.8074868965139929</v>
+        <v>0.5199490157469875</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.7338967885677844</v>
+        <v>0.5477128465850684</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.7348027334103353</v>
+        <v>0.4803168606112988</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.7009016331799793</v>
+        <v>0.42106736080698653</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>2.675</v>
+        <v>3.05</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>1.7597712555314886</v>
+        <v>0.8458041235325207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="770">
         <v>40.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.8425417616346125</v>
+        <v>0.7520700668402074</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.7916800354981495</v>
+        <v>0.7504024747598452</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.7987534949446168</v>
+        <v>0.7386222784625098</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.7441931030078053</v>
+        <v>0.6829962019934838</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>2.925</v>
+        <v>2.825</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>1.8727122795697373</v>
+        <v>0.9306049865682222</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>40.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.6033427088758174</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.5527442113349614</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.5047041884707496</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4650895014322352</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>2.65</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.4241506690674017</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>40.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.5426446195707998</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.5222166634297997</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.4823045190815025</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.3961483898152001</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>2.4</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.3922864426767714</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="780">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.225</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.775</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="794">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="794">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="794">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="794">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="794">
-        <v>43</v>
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.225</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.075</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.025</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.275</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.275</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.125</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="795">
-        <v>0.0</v>
+        <v>0.225</v>
       </c>
       <c r="C39" t="n" s="796">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="D39" t="n" s="797">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="798">
+        <v>0.275</v>
+      </c>
+      <c r="F39" t="n" s="799">
         <v>0.2</v>
       </c>
-      <c r="F39" t="n" s="799">
-        <v>0.675</v>
-      </c>
       <c r="G39" t="n" s="800">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="H39" t="n" s="801">
         <v>0.0</v>
@@ -8033,7 +8042,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="795">
         <v>0.0</v>
@@ -8042,16 +8051,16 @@
         <v>0.0</v>
       </c>
       <c r="D40" t="n" s="797">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="798">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="F40" t="n" s="799">
-        <v>0.075</v>
+        <v>0.675</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.725</v>
+        <v>0.125</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8059,7 +8068,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="795">
         <v>0.0</v>
@@ -8068,16 +8077,16 @@
         <v>0.0</v>
       </c>
       <c r="D41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="E41" t="n" s="798">
-        <v>0.35</v>
+        <v>0.175</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.575</v>
+        <v>0.075</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.075</v>
+        <v>0.725</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8085,25 +8094,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="795">
+        <v>0.125</v>
+      </c>
+      <c r="C42" t="n" s="796">
+        <v>0.15</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.025</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.35</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.35</v>
+      </c>
+      <c r="G42" t="n" s="800">
         <v>0.0</v>
-      </c>
-      <c r="C42" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D42" t="n" s="797">
-        <v>0.05</v>
-      </c>
-      <c r="E42" t="n" s="798">
-        <v>0.375</v>
-      </c>
-      <c r="F42" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n" s="800">
-        <v>0.575</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8111,22 +8120,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="795">
-        <v>0.025</v>
+        <v>0.175</v>
       </c>
       <c r="C43" t="n" s="796">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="D43" t="n" s="797">
-        <v>0.175</v>
+        <v>0.075</v>
       </c>
       <c r="E43" t="n" s="798">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F43" t="n" s="799">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G43" t="n" s="800">
         <v>0.0</v>
@@ -8137,22 +8146,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="795">
         <v>0.025</v>
       </c>
       <c r="C44" t="n" s="796">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="797">
+        <v>0.175</v>
+      </c>
+      <c r="E44" t="n" s="798">
+        <v>0.5</v>
+      </c>
+      <c r="F44" t="n" s="799">
         <v>0.3</v>
-      </c>
-      <c r="E44" t="n" s="798">
-        <v>0.4</v>
-      </c>
-      <c r="F44" t="n" s="799">
-        <v>0.25</v>
       </c>
       <c r="G44" t="n" s="800">
         <v>0.0</v>
@@ -8163,105 +8172,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.225</v>
+        <v>0.025</v>
       </c>
       <c r="C45" t="n" s="796">
-        <v>0.075</v>
+        <v>0.025</v>
       </c>
       <c r="D45" t="n" s="797">
-        <v>0.025</v>
+        <v>0.3</v>
       </c>
       <c r="E45" t="n" s="798">
-        <v>0.275</v>
+        <v>0.4</v>
       </c>
       <c r="F45" t="n" s="799">
-        <v>0.275</v>
+        <v>0.25</v>
       </c>
       <c r="G45" t="n" s="800">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.225</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.05</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.275</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.2</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.25</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.125</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.15</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.025</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.35</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.35</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.175</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.1</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.075</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.45</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.2</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
